--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3025.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3025.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172042487060067</v>
+        <v>1.429192543029785</v>
       </c>
       <c r="B1">
-        <v>1.892629829911679</v>
+        <v>1.597786068916321</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.532034397125244</v>
       </c>
       <c r="D1">
-        <v>1.982799917456572</v>
+        <v>1.635138988494873</v>
       </c>
       <c r="E1">
-        <v>1.200750128022571</v>
+        <v>0.9716724753379822</v>
       </c>
     </row>
   </sheetData>
